--- a/biology/Zoologie/Atractus_roulei/Atractus_roulei.xlsx
+++ b/biology/Zoologie/Atractus_roulei/Atractus_roulei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus roulei est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus roulei est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de l'Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de l'Équateur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Atractus roulei[2] mesure 450 mm dont 41 mm pour la queue. Cette espèce a la tête brun olivâtre. Son dos est brun violacé avec des écailles marquées de brun peu visible dans leur partie antérieure. Sa face ventrale est blanche marquée irrégulièrement de brun.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Atractus roulei mesure 450 mm dont 41 mm pour la queue. Cette espèce a la tête brun olivâtre. Son dos est brun violacé avec des écailles marquées de brun peu visible dans leur partie antérieure. Sa face ventrale est blanche marquée irrégulièrement de brun.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Louis Roule (1861-1942), zoologiste français[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Louis Roule (1861-1942), zoologiste français.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Despax, 1910 : Mission géodésique de l’Équateur. Collections recueillies par M. le Dr Rivet. Liste des ophidiens et descriptions des espèces nouvelles. (Note préliminaire). Bulletin du Muséum National d'Histoire Naturelle, vol. 16, p. 368-376 (texte intégral).</t>
         </is>
